--- a/Team-Data/2011-12/2-28-2011-12.xlsx
+++ b/Team-Data/2011-12/2-28-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,16 +811,16 @@
         <v>1.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH2" t="n">
         <v>1</v>
@@ -774,10 +841,10 @@
         <v>17</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
@@ -789,25 +856,25 @@
         <v>26</v>
       </c>
       <c r="AS2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AX2" t="n">
         <v>17</v>
       </c>
       <c r="AY2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ2" t="n">
         <v>2</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-28-2011-12</t>
+          <t>2012-02-28</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="n">
         <v>17</v>
       </c>
       <c r="G3" t="n">
-        <v>0.485</v>
+        <v>0.469</v>
       </c>
       <c r="H3" t="n">
         <v>48.2</v>
@@ -866,49 +933,49 @@
         <v>34.1</v>
       </c>
       <c r="J3" t="n">
-        <v>75</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.454</v>
+        <v>0.455</v>
       </c>
       <c r="L3" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M3" t="n">
         <v>15.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0.381</v>
+        <v>0.38</v>
       </c>
       <c r="O3" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="P3" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.764</v>
+        <v>0.761</v>
       </c>
       <c r="R3" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T3" t="n">
         <v>38.8</v>
       </c>
       <c r="U3" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="V3" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="W3" t="n">
         <v>6.4</v>
       </c>
       <c r="X3" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y3" t="n">
         <v>5.1</v>
@@ -920,7 +987,7 @@
         <v>19.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>89.3</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="AC3" t="n">
         <v>0.9</v>
@@ -938,7 +1005,7 @@
         <v>18</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI3" t="n">
         <v>25</v>
@@ -953,13 +1020,13 @@
         <v>20</v>
       </c>
       <c r="AM3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO3" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AP3" t="n">
         <v>27</v>
@@ -971,13 +1038,13 @@
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT3" t="n">
         <v>30</v>
       </c>
       <c r="AU3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV3" t="n">
         <v>23</v>
@@ -986,7 +1053,7 @@
         <v>28</v>
       </c>
       <c r="AX3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY3" t="n">
         <v>16</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-28-2011-12</t>
+          <t>2012-02-28</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-14.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1126,7 +1193,7 @@
         <v>30</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK4" t="n">
         <v>29</v>
@@ -1138,22 +1205,22 @@
         <v>26</v>
       </c>
       <c r="AN4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP4" t="n">
         <v>22</v>
       </c>
       <c r="AQ4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR4" t="n">
         <v>24</v>
       </c>
       <c r="AS4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT4" t="n">
         <v>26</v>
@@ -1168,16 +1235,16 @@
         <v>30</v>
       </c>
       <c r="AX4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ4" t="n">
         <v>11</v>
       </c>
       <c r="BA4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-28-2011-12</t>
+          <t>2012-02-28</t>
         </is>
       </c>
     </row>
@@ -1212,55 +1279,55 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" t="n">
         <v>8</v>
       </c>
       <c r="G5" t="n">
-        <v>0.778</v>
+        <v>0.771</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J5" t="n">
-        <v>82.09999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K5" t="n">
         <v>0.46</v>
       </c>
       <c r="L5" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.376</v>
+        <v>0.383</v>
       </c>
       <c r="O5" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="P5" t="n">
         <v>21.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.728</v>
+        <v>0.729</v>
       </c>
       <c r="R5" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="S5" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="T5" t="n">
-        <v>45.6</v>
+        <v>45.5</v>
       </c>
       <c r="U5" t="n">
         <v>23.3</v>
@@ -1269,13 +1336,13 @@
         <v>14</v>
       </c>
       <c r="W5" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X5" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Y5" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z5" t="n">
         <v>17.5</v>
@@ -1284,10 +1351,10 @@
         <v>18</v>
       </c>
       <c r="AB5" t="n">
-        <v>97.40000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -1305,7 +1372,7 @@
         <v>29</v>
       </c>
       <c r="AI5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ5" t="n">
         <v>9</v>
@@ -1320,19 +1387,19 @@
         <v>20</v>
       </c>
       <c r="AN5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP5" t="n">
         <v>17</v>
       </c>
       <c r="AQ5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS5" t="n">
         <v>9</v>
@@ -1344,28 +1411,28 @@
         <v>1</v>
       </c>
       <c r="AV5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW5" t="n">
         <v>21</v>
       </c>
       <c r="AX5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY5" t="n">
         <v>13</v>
       </c>
       <c r="AZ5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-28-2011-12</t>
+          <t>2012-02-28</t>
         </is>
       </c>
     </row>
@@ -1394,37 +1461,37 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
       </c>
       <c r="F6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" t="n">
-        <v>0.406</v>
+        <v>0.419</v>
       </c>
       <c r="H6" t="n">
         <v>48.3</v>
       </c>
       <c r="I6" t="n">
-        <v>34.3</v>
+        <v>34.5</v>
       </c>
       <c r="J6" t="n">
-        <v>81.09999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.423</v>
+        <v>0.424</v>
       </c>
       <c r="L6" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M6" t="n">
         <v>19.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.354</v>
+        <v>0.357</v>
       </c>
       <c r="O6" t="n">
         <v>17.9</v>
@@ -1433,55 +1500,55 @@
         <v>25.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.696</v>
+        <v>0.697</v>
       </c>
       <c r="R6" t="n">
         <v>13.2</v>
       </c>
       <c r="S6" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="T6" t="n">
-        <v>43.6</v>
+        <v>43.7</v>
       </c>
       <c r="U6" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V6" t="n">
         <v>15.8</v>
       </c>
       <c r="W6" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="X6" t="n">
         <v>4.7</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Z6" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA6" t="n">
         <v>21.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.40000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="AC6" t="n">
         <v>-3.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG6" t="n">
         <v>21</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>23</v>
       </c>
       <c r="AH6" t="n">
         <v>13</v>
@@ -1490,19 +1557,19 @@
         <v>24</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL6" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AM6" t="n">
         <v>16</v>
       </c>
       <c r="AN6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AO6" t="n">
         <v>9</v>
@@ -1514,28 +1581,28 @@
         <v>28</v>
       </c>
       <c r="AR6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU6" t="n">
         <v>18</v>
       </c>
       <c r="AV6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AX6" t="n">
         <v>23</v>
       </c>
       <c r="AY6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ6" t="n">
         <v>23</v>
@@ -1544,7 +1611,7 @@
         <v>5</v>
       </c>
       <c r="BB6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC6" t="n">
         <v>23</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-28-2011-12</t>
+          <t>2012-02-28</t>
         </is>
       </c>
     </row>
@@ -1576,91 +1643,91 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" t="n">
         <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6</v>
+        <v>0.618</v>
       </c>
       <c r="H7" t="n">
         <v>48.4</v>
       </c>
       <c r="I7" t="n">
-        <v>35.7</v>
+        <v>35.8</v>
       </c>
       <c r="J7" t="n">
-        <v>81.90000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="K7" t="n">
-        <v>0.436</v>
+        <v>0.438</v>
       </c>
       <c r="L7" t="n">
         <v>7.1</v>
       </c>
       <c r="M7" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="N7" t="n">
         <v>0.325</v>
       </c>
       <c r="O7" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="P7" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.74</v>
+        <v>0.741</v>
       </c>
       <c r="R7" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="S7" t="n">
         <v>33</v>
       </c>
       <c r="T7" t="n">
-        <v>43.9</v>
+        <v>43.7</v>
       </c>
       <c r="U7" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V7" t="n">
         <v>14.6</v>
       </c>
       <c r="W7" t="n">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="X7" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y7" t="n">
         <v>4.4</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="AA7" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AB7" t="n">
-        <v>94.3</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF7" t="n">
         <v>7</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>8</v>
       </c>
       <c r="AG7" t="n">
         <v>8</v>
@@ -1669,10 +1736,10 @@
         <v>9</v>
       </c>
       <c r="AI7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK7" t="n">
         <v>18</v>
@@ -1681,16 +1748,16 @@
         <v>7</v>
       </c>
       <c r="AM7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN7" t="n">
         <v>21</v>
       </c>
       <c r="AO7" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ7" t="n">
         <v>20</v>
@@ -1699,13 +1766,13 @@
         <v>19</v>
       </c>
       <c r="AS7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT7" t="n">
         <v>5</v>
       </c>
       <c r="AU7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV7" t="n">
         <v>10</v>
@@ -1717,19 +1784,19 @@
         <v>9</v>
       </c>
       <c r="AY7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA7" t="n">
         <v>22</v>
       </c>
       <c r="BB7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-28-2011-12</t>
+          <t>2012-02-28</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>2.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
         <v>14</v>
@@ -1854,13 +1921,13 @@
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK8" t="n">
         <v>3</v>
       </c>
       <c r="AL8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM8" t="n">
         <v>7</v>
@@ -1881,7 +1948,7 @@
         <v>22</v>
       </c>
       <c r="AS8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT8" t="n">
         <v>10</v>
@@ -1890,7 +1957,7 @@
         <v>2</v>
       </c>
       <c r="AV8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW8" t="n">
         <v>5</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-28-2011-12</t>
+          <t>2012-02-28</t>
         </is>
       </c>
     </row>
@@ -1940,37 +2007,37 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" t="n">
         <v>11</v>
       </c>
       <c r="F9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" t="n">
-        <v>0.306</v>
+        <v>0.314</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
       </c>
       <c r="I9" t="n">
-        <v>33.7</v>
+        <v>33.9</v>
       </c>
       <c r="J9" t="n">
         <v>79.3</v>
       </c>
       <c r="K9" t="n">
-        <v>0.425</v>
+        <v>0.428</v>
       </c>
       <c r="L9" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="M9" t="n">
         <v>12.9</v>
       </c>
       <c r="N9" t="n">
-        <v>0.335</v>
+        <v>0.338</v>
       </c>
       <c r="O9" t="n">
         <v>17</v>
@@ -1979,49 +2046,49 @@
         <v>22.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.769</v>
+        <v>0.768</v>
       </c>
       <c r="R9" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S9" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="T9" t="n">
         <v>39.8</v>
       </c>
       <c r="U9" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="V9" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="W9" t="n">
         <v>7.1</v>
       </c>
       <c r="X9" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>19.2</v>
+        <v>19.5</v>
       </c>
       <c r="AA9" t="n">
         <v>19.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>88.7</v>
+        <v>89.3</v>
       </c>
       <c r="AC9" t="n">
-        <v>-7.2</v>
+        <v>-6.6</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
       </c>
       <c r="AE9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF9" t="n">
         <v>26</v>
@@ -2033,10 +2100,10 @@
         <v>27</v>
       </c>
       <c r="AI9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK9" t="n">
         <v>25</v>
@@ -2069,10 +2136,10 @@
         <v>27</v>
       </c>
       <c r="AU9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV9" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AW9" t="n">
         <v>23</v>
@@ -2081,7 +2148,7 @@
         <v>30</v>
       </c>
       <c r="AY9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ9" t="n">
         <v>10</v>
@@ -2090,10 +2157,10 @@
         <v>16</v>
       </c>
       <c r="BB9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-28-2011-12</t>
+          <t>2012-02-28</t>
         </is>
       </c>
     </row>
@@ -2122,58 +2189,58 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
       </c>
       <c r="F10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" t="n">
-        <v>0.419</v>
+        <v>0.433</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>37.4</v>
+        <v>37.7</v>
       </c>
       <c r="J10" t="n">
-        <v>82.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="K10" t="n">
-        <v>0.455</v>
+        <v>0.459</v>
       </c>
       <c r="L10" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M10" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="N10" t="n">
-        <v>0.387</v>
+        <v>0.396</v>
       </c>
       <c r="O10" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="P10" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.749</v>
+        <v>0.75</v>
       </c>
       <c r="R10" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="S10" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="T10" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="U10" t="n">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="V10" t="n">
         <v>14.5</v>
@@ -2182,31 +2249,31 @@
         <v>8.6</v>
       </c>
       <c r="X10" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y10" t="n">
         <v>4.1</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AA10" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="AB10" t="n">
-        <v>98.5</v>
+        <v>99.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.2</v>
+        <v>-1.5</v>
       </c>
       <c r="AD10" t="n">
         <v>30</v>
       </c>
       <c r="AE10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AG10" t="n">
         <v>20</v>
@@ -2215,7 +2282,7 @@
         <v>12</v>
       </c>
       <c r="AI10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AJ10" t="n">
         <v>8</v>
@@ -2230,37 +2297,37 @@
         <v>6</v>
       </c>
       <c r="AN10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO10" t="n">
         <v>23</v>
       </c>
       <c r="AP10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AS10" t="n">
         <v>27</v>
       </c>
       <c r="AT10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AU10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV10" t="n">
         <v>9</v>
       </c>
       <c r="AW10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX10" t="n">
         <v>7</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>6</v>
       </c>
       <c r="AY10" t="n">
         <v>2</v>
@@ -2269,13 +2336,13 @@
         <v>29</v>
       </c>
       <c r="BA10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB10" t="n">
         <v>5</v>
       </c>
       <c r="BC10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-28-2011-12</t>
+          <t>2012-02-28</t>
         </is>
       </c>
     </row>
@@ -2304,28 +2371,28 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" t="n">
         <v>14</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6</v>
+        <v>0.588</v>
       </c>
       <c r="H11" t="n">
         <v>48.4</v>
       </c>
       <c r="I11" t="n">
-        <v>37.5</v>
+        <v>37.8</v>
       </c>
       <c r="J11" t="n">
-        <v>83.40000000000001</v>
+        <v>83.7</v>
       </c>
       <c r="K11" t="n">
-        <v>0.45</v>
+        <v>0.452</v>
       </c>
       <c r="L11" t="n">
         <v>7</v>
@@ -2337,31 +2404,31 @@
         <v>0.354</v>
       </c>
       <c r="O11" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="P11" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.788</v>
+        <v>0.786</v>
       </c>
       <c r="R11" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S11" t="n">
         <v>30.8</v>
       </c>
       <c r="T11" t="n">
-        <v>42.3</v>
+        <v>42.5</v>
       </c>
       <c r="U11" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="V11" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W11" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="X11" t="n">
         <v>4.8</v>
@@ -2370,40 +2437,40 @@
         <v>5.1</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AA11" t="n">
-        <v>18</v>
+        <v>17.8</v>
       </c>
       <c r="AB11" t="n">
-        <v>97.3</v>
+        <v>97.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH11" t="n">
         <v>9</v>
       </c>
       <c r="AI11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ11" t="n">
         <v>3</v>
       </c>
       <c r="AK11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AL11" t="n">
         <v>8</v>
@@ -2412,10 +2479,10 @@
         <v>13</v>
       </c>
       <c r="AN11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP11" t="n">
         <v>29</v>
@@ -2427,10 +2494,10 @@
         <v>15</v>
       </c>
       <c r="AS11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU11" t="n">
         <v>17</v>
@@ -2439,22 +2506,22 @@
         <v>14</v>
       </c>
       <c r="AW11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY11" t="n">
         <v>18</v>
       </c>
       <c r="AZ11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA11" t="n">
         <v>29</v>
       </c>
       <c r="BB11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC11" t="n">
         <v>14</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-28-2011-12</t>
+          <t>2012-02-28</t>
         </is>
       </c>
     </row>
@@ -2486,94 +2553,94 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" t="n">
         <v>12</v>
       </c>
       <c r="G12" t="n">
-        <v>0.647</v>
+        <v>0.636</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="J12" t="n">
-        <v>81.2</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.43</v>
+        <v>0.429</v>
       </c>
       <c r="L12" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="M12" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="N12" t="n">
-        <v>0.366</v>
+        <v>0.364</v>
       </c>
       <c r="O12" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="P12" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.781</v>
+        <v>0.784</v>
       </c>
       <c r="R12" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="S12" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="T12" t="n">
-        <v>44.4</v>
+        <v>44.1</v>
       </c>
       <c r="U12" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="V12" t="n">
         <v>14.8</v>
       </c>
       <c r="W12" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X12" t="n">
         <v>5.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>95.7</v>
+        <v>95.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="AD12" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AE12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH12" t="n">
         <v>14</v>
@@ -2582,10 +2649,10 @@
         <v>20</v>
       </c>
       <c r="AJ12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL12" t="n">
         <v>22</v>
@@ -2603,7 +2670,7 @@
         <v>5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AR12" t="n">
         <v>5</v>
@@ -2621,13 +2688,13 @@
         <v>12</v>
       </c>
       <c r="AW12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX12" t="n">
         <v>8</v>
       </c>
       <c r="AY12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ12" t="n">
         <v>26</v>
@@ -2639,7 +2706,7 @@
         <v>12</v>
       </c>
       <c r="BC12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-28-2011-12</t>
+          <t>2012-02-28</t>
         </is>
       </c>
     </row>
@@ -2668,43 +2735,43 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" t="n">
         <v>20</v>
       </c>
       <c r="F13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" t="n">
-        <v>0.625</v>
+        <v>0.645</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
       </c>
       <c r="I13" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J13" t="n">
-        <v>80.8</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L13" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="M13" t="n">
-        <v>21.7</v>
+        <v>22.1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.35</v>
+        <v>0.352</v>
       </c>
       <c r="O13" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="P13" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="Q13" t="n">
         <v>0.6870000000000001</v>
@@ -2719,10 +2786,10 @@
         <v>42.9</v>
       </c>
       <c r="U13" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="V13" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="W13" t="n">
         <v>7.8</v>
@@ -2731,31 +2798,31 @@
         <v>5.1</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AA13" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="AB13" t="n">
         <v>97.90000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF13" t="n">
         <v>5</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH13" t="n">
         <v>6</v>
@@ -2764,7 +2831,7 @@
         <v>11</v>
       </c>
       <c r="AJ13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK13" t="n">
         <v>8</v>
@@ -2773,7 +2840,7 @@
         <v>5</v>
       </c>
       <c r="AM13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN13" t="n">
         <v>13</v>
@@ -2791,16 +2858,16 @@
         <v>11</v>
       </c>
       <c r="AS13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT13" t="n">
         <v>12</v>
       </c>
       <c r="AU13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW13" t="n">
         <v>16</v>
@@ -2809,7 +2876,7 @@
         <v>16</v>
       </c>
       <c r="AY13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ13" t="n">
         <v>25</v>
@@ -2821,7 +2888,7 @@
         <v>7</v>
       </c>
       <c r="BC13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-28-2011-12</t>
+          <t>2012-02-28</t>
         </is>
       </c>
     </row>
@@ -2928,25 +2995,25 @@
         <v>1.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH14" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AI14" t="n">
         <v>17</v>
       </c>
       <c r="AJ14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK14" t="n">
         <v>12</v>
@@ -2958,7 +3025,7 @@
         <v>19</v>
       </c>
       <c r="AN14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO14" t="n">
         <v>14</v>
@@ -2979,7 +3046,7 @@
         <v>1</v>
       </c>
       <c r="AU14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV14" t="n">
         <v>16</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-28-2011-12</t>
+          <t>2012-02-28</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>1.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
         <v>13</v>
@@ -3122,13 +3189,13 @@
         <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AI15" t="n">
         <v>13</v>
       </c>
       <c r="AJ15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK15" t="n">
         <v>15</v>
@@ -3155,13 +3222,13 @@
         <v>7</v>
       </c>
       <c r="AS15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT15" t="n">
         <v>16</v>
       </c>
       <c r="AU15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV15" t="n">
         <v>18</v>
@@ -3170,10 +3237,10 @@
         <v>1</v>
       </c>
       <c r="AX15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ15" t="n">
         <v>12</v>
@@ -3182,10 +3249,10 @@
         <v>14</v>
       </c>
       <c r="BB15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-28-2011-12</t>
+          <t>2012-02-28</t>
         </is>
       </c>
     </row>
@@ -3292,10 +3359,10 @@
         <v>9.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF16" t="n">
         <v>1</v>
@@ -3331,7 +3398,7 @@
         <v>4</v>
       </c>
       <c r="AQ16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR16" t="n">
         <v>27</v>
@@ -3343,19 +3410,19 @@
         <v>11</v>
       </c>
       <c r="AU16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV16" t="n">
         <v>20</v>
       </c>
       <c r="AW16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX16" t="n">
         <v>15</v>
       </c>
       <c r="AY16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ16" t="n">
         <v>19</v>
@@ -3367,7 +3434,7 @@
         <v>1</v>
       </c>
       <c r="BC16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-28-2011-12</t>
+          <t>2012-02-28</t>
         </is>
       </c>
     </row>
@@ -3396,94 +3463,94 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" t="n">
         <v>20</v>
       </c>
       <c r="G17" t="n">
-        <v>0.412</v>
+        <v>0.394</v>
       </c>
       <c r="H17" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="I17" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J17" t="n">
-        <v>84.90000000000001</v>
+        <v>84.7</v>
       </c>
       <c r="K17" t="n">
-        <v>0.425</v>
+        <v>0.424</v>
       </c>
       <c r="L17" t="n">
         <v>6.7</v>
       </c>
       <c r="M17" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="O17" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="P17" t="n">
         <v>20.4</v>
       </c>
-      <c r="N17" t="n">
-        <v>0.329</v>
-      </c>
-      <c r="O17" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="P17" t="n">
-        <v>20.9</v>
-      </c>
       <c r="Q17" t="n">
-        <v>0.791</v>
+        <v>0.792</v>
       </c>
       <c r="R17" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="S17" t="n">
         <v>28.6</v>
       </c>
       <c r="T17" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="U17" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="V17" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W17" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X17" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y17" t="n">
         <v>4.9</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA17" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="AB17" t="n">
-        <v>95.3</v>
+        <v>94.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>-2.1</v>
+        <v>-2.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AE17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF17" t="n">
         <v>22</v>
       </c>
       <c r="AG17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH17" t="n">
         <v>22</v>
@@ -3492,16 +3559,16 @@
         <v>14</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN17" t="n">
         <v>18</v>
@@ -3510,7 +3577,7 @@
         <v>16</v>
       </c>
       <c r="AP17" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AQ17" t="n">
         <v>2</v>
@@ -3522,22 +3589,22 @@
         <v>28</v>
       </c>
       <c r="AT17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AU17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AV17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AX17" t="n">
         <v>14</v>
       </c>
       <c r="AY17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ17" t="n">
         <v>15</v>
@@ -3546,10 +3613,10 @@
         <v>18</v>
       </c>
       <c r="BB17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BC17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-28-2011-12</t>
+          <t>2012-02-28</t>
         </is>
       </c>
     </row>
@@ -3578,37 +3645,37 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18" t="n">
         <v>17</v>
       </c>
       <c r="G18" t="n">
-        <v>0.514</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="n">
         <v>48.1</v>
       </c>
       <c r="I18" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="J18" t="n">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="K18" t="n">
-        <v>0.432</v>
+        <v>0.43</v>
       </c>
       <c r="L18" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M18" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="N18" t="n">
-        <v>0.326</v>
+        <v>0.322</v>
       </c>
       <c r="O18" t="n">
         <v>20.4</v>
@@ -3617,28 +3684,28 @@
         <v>26.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.774</v>
+        <v>0.777</v>
       </c>
       <c r="R18" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S18" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="T18" t="n">
-        <v>44.9</v>
+        <v>45.1</v>
       </c>
       <c r="U18" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="V18" t="n">
-        <v>16</v>
+        <v>16.2</v>
       </c>
       <c r="W18" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X18" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y18" t="n">
         <v>5.7</v>
@@ -3650,25 +3717,25 @@
         <v>22.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>97.09999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE18" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AF18" t="n">
         <v>15</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI18" t="n">
         <v>19</v>
@@ -3677,7 +3744,7 @@
         <v>14</v>
       </c>
       <c r="AK18" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AL18" t="n">
         <v>16</v>
@@ -3686,7 +3753,7 @@
         <v>11</v>
       </c>
       <c r="AN18" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AO18" t="n">
         <v>4</v>
@@ -3707,19 +3774,19 @@
         <v>3</v>
       </c>
       <c r="AU18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>28</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AX18" t="n">
         <v>24</v>
       </c>
-      <c r="AV18" t="n">
-        <v>27</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>20</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>26</v>
-      </c>
       <c r="AY18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ18" t="n">
         <v>8</v>
@@ -3731,7 +3798,7 @@
         <v>10</v>
       </c>
       <c r="BC18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-28-2011-12</t>
+          <t>2012-02-28</t>
         </is>
       </c>
     </row>
@@ -3760,64 +3827,64 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" t="n">
         <v>25</v>
       </c>
       <c r="G19" t="n">
-        <v>0.306</v>
+        <v>0.286</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
       </c>
       <c r="I19" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="J19" t="n">
-        <v>79.40000000000001</v>
+        <v>79.3</v>
       </c>
       <c r="K19" t="n">
-        <v>0.423</v>
+        <v>0.422</v>
       </c>
       <c r="L19" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="M19" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="N19" t="n">
-        <v>0.355</v>
+        <v>0.357</v>
       </c>
       <c r="O19" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="P19" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.772</v>
+        <v>0.771</v>
       </c>
       <c r="R19" t="n">
         <v>12.2</v>
       </c>
       <c r="S19" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="T19" t="n">
-        <v>39.8</v>
+        <v>39.4</v>
       </c>
       <c r="U19" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="V19" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="W19" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X19" t="n">
         <v>4.2</v>
@@ -3829,25 +3896,25 @@
         <v>20.1</v>
       </c>
       <c r="AA19" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="AB19" t="n">
         <v>92.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>-6.5</v>
+        <v>-6.7</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
       </c>
       <c r="AE19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG19" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AH19" t="n">
         <v>27</v>
@@ -3856,7 +3923,7 @@
         <v>29</v>
       </c>
       <c r="AJ19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK19" t="n">
         <v>28</v>
@@ -3868,13 +3935,13 @@
         <v>2</v>
       </c>
       <c r="AN19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO19" t="n">
         <v>15</v>
       </c>
       <c r="AP19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ19" t="n">
         <v>9</v>
@@ -3886,16 +3953,16 @@
         <v>30</v>
       </c>
       <c r="AT19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU19" t="n">
         <v>21</v>
       </c>
       <c r="AV19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX19" t="n">
         <v>27</v>
@@ -3904,16 +3971,16 @@
         <v>20</v>
       </c>
       <c r="AZ19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA19" t="n">
         <v>13</v>
       </c>
       <c r="BB19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-28-2011-12</t>
+          <t>2012-02-28</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
       </c>
       <c r="F20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G20" t="n">
-        <v>0.235</v>
+        <v>0.242</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
@@ -3960,52 +4027,52 @@
         <v>34.5</v>
       </c>
       <c r="J20" t="n">
-        <v>78.90000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="K20" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L20" t="n">
         <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="N20" t="n">
-        <v>0.321</v>
+        <v>0.319</v>
       </c>
       <c r="O20" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="P20" t="n">
         <v>20.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.745</v>
+        <v>0.741</v>
       </c>
       <c r="R20" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S20" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="T20" t="n">
-        <v>41.9</v>
+        <v>41.7</v>
       </c>
       <c r="U20" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="V20" t="n">
         <v>15.5</v>
       </c>
       <c r="W20" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X20" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z20" t="n">
         <v>20.8</v>
@@ -4014,19 +4081,19 @@
         <v>18.4</v>
       </c>
       <c r="AB20" t="n">
-        <v>88.40000000000001</v>
+        <v>88.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>-5</v>
+        <v>-5.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
       </c>
       <c r="AF20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG20" t="n">
         <v>28</v>
@@ -4038,7 +4105,7 @@
         <v>23</v>
       </c>
       <c r="AJ20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK20" t="n">
         <v>17</v>
@@ -4050,22 +4117,22 @@
         <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR20" t="n">
         <v>12</v>
       </c>
       <c r="AS20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT20" t="n">
         <v>19</v>
@@ -4074,16 +4141,16 @@
         <v>20</v>
       </c>
       <c r="AV20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX20" t="n">
         <v>20</v>
       </c>
       <c r="AY20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ20" t="n">
         <v>22</v>
@@ -4095,7 +4162,7 @@
         <v>29</v>
       </c>
       <c r="BC20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-28-2011-12</t>
+          <t>2012-02-28</t>
         </is>
       </c>
     </row>
@@ -4202,19 +4269,19 @@
         <v>1.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF21" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
         <v>17</v>
       </c>
       <c r="AH21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
         <v>22</v>
@@ -4223,16 +4290,16 @@
         <v>21</v>
       </c>
       <c r="AK21" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM21" t="n">
         <v>3</v>
       </c>
       <c r="AN21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO21" t="n">
         <v>6</v>
@@ -4274,7 +4341,7 @@
         <v>2</v>
       </c>
       <c r="BB21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC21" t="n">
         <v>17</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-28-2011-12</t>
+          <t>2012-02-28</t>
         </is>
       </c>
     </row>
@@ -4384,10 +4451,10 @@
         <v>6.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF22" t="n">
         <v>1</v>
@@ -4396,7 +4463,7 @@
         <v>1</v>
       </c>
       <c r="AH22" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AI22" t="n">
         <v>8</v>
@@ -4408,7 +4475,7 @@
         <v>2</v>
       </c>
       <c r="AL22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM22" t="n">
         <v>15</v>
@@ -4432,7 +4499,7 @@
         <v>2</v>
       </c>
       <c r="AT22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU22" t="n">
         <v>27</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-28-2011-12</t>
+          <t>2012-02-28</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>2.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>5</v>
@@ -4575,10 +4642,10 @@
         <v>7</v>
       </c>
       <c r="AG23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH23" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI23" t="n">
         <v>28</v>
@@ -4599,7 +4666,7 @@
         <v>4</v>
       </c>
       <c r="AO23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP23" t="n">
         <v>11</v>
@@ -4608,7 +4675,7 @@
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AS23" t="n">
         <v>8</v>
@@ -4635,13 +4702,13 @@
         <v>4</v>
       </c>
       <c r="BA23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB23" t="n">
         <v>23</v>
       </c>
       <c r="BC23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-28-2011-12</t>
+          <t>2012-02-28</t>
         </is>
       </c>
     </row>
@@ -4670,46 +4737,46 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F24" t="n">
         <v>14</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6</v>
+        <v>0.588</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J24" t="n">
         <v>83.09999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L24" t="n">
         <v>5.7</v>
       </c>
       <c r="M24" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="N24" t="n">
         <v>0.372</v>
       </c>
       <c r="O24" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="P24" t="n">
-        <v>18.5</v>
+        <v>18.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.733</v>
+        <v>0.73</v>
       </c>
       <c r="R24" t="n">
         <v>9.800000000000001</v>
@@ -4718,64 +4785,64 @@
         <v>32.9</v>
       </c>
       <c r="T24" t="n">
-        <v>42.8</v>
+        <v>42.7</v>
       </c>
       <c r="U24" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V24" t="n">
-        <v>10.7</v>
+        <v>10.5</v>
       </c>
       <c r="W24" t="n">
-        <v>8.699999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="X24" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z24" t="n">
         <v>17.9</v>
       </c>
       <c r="AA24" t="n">
-        <v>16.7</v>
+        <v>16.9</v>
       </c>
       <c r="AB24" t="n">
-        <v>94.09999999999999</v>
+        <v>94</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI24" t="n">
         <v>7</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>6</v>
       </c>
       <c r="AJ24" t="n">
         <v>5</v>
       </c>
       <c r="AK24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL24" t="n">
         <v>21</v>
       </c>
       <c r="AM24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN24" t="n">
         <v>8</v>
@@ -4787,7 +4854,7 @@
         <v>30</v>
       </c>
       <c r="AQ24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR24" t="n">
         <v>29</v>
@@ -4799,16 +4866,16 @@
         <v>13</v>
       </c>
       <c r="AU24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV24" t="n">
         <v>1</v>
       </c>
       <c r="AW24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY24" t="n">
         <v>8</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-28-2011-12</t>
+          <t>2012-02-28</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE25" t="n">
         <v>20</v>
@@ -4939,7 +5006,7 @@
         <v>22</v>
       </c>
       <c r="AG25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH25" t="n">
         <v>29</v>
@@ -4954,7 +5021,7 @@
         <v>13</v>
       </c>
       <c r="AL25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM25" t="n">
         <v>10</v>
@@ -4963,7 +5030,7 @@
         <v>15</v>
       </c>
       <c r="AO25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP25" t="n">
         <v>28</v>
@@ -4981,7 +5048,7 @@
         <v>25</v>
       </c>
       <c r="AU25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV25" t="n">
         <v>11</v>
@@ -4990,7 +5057,7 @@
         <v>22</v>
       </c>
       <c r="AX25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY25" t="n">
         <v>5</v>
@@ -5002,7 +5069,7 @@
         <v>20</v>
       </c>
       <c r="BB25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC25" t="n">
         <v>22</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-28-2011-12</t>
+          <t>2012-02-28</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>5.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE26" t="n">
         <v>14</v>
@@ -5136,7 +5203,7 @@
         <v>14</v>
       </c>
       <c r="AL26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM26" t="n">
         <v>14</v>
@@ -5151,7 +5218,7 @@
         <v>14</v>
       </c>
       <c r="AQ26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR26" t="n">
         <v>16</v>
@@ -5163,7 +5230,7 @@
         <v>17</v>
       </c>
       <c r="AU26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV26" t="n">
         <v>8</v>
@@ -5172,10 +5239,10 @@
         <v>4</v>
       </c>
       <c r="AX26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ26" t="n">
         <v>16</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-28-2011-12</t>
+          <t>2012-02-28</t>
         </is>
       </c>
     </row>
@@ -5216,19 +5283,19 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F27" t="n">
         <v>22</v>
       </c>
       <c r="G27" t="n">
-        <v>0.353</v>
+        <v>0.333</v>
       </c>
       <c r="H27" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="I27" t="n">
         <v>34.8</v>
@@ -5237,64 +5304,64 @@
         <v>84.7</v>
       </c>
       <c r="K27" t="n">
-        <v>0.411</v>
+        <v>0.41</v>
       </c>
       <c r="L27" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="M27" t="n">
         <v>19.9</v>
       </c>
       <c r="N27" t="n">
-        <v>0.309</v>
+        <v>0.311</v>
       </c>
       <c r="O27" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="P27" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.75</v>
+        <v>0.748</v>
       </c>
       <c r="R27" t="n">
         <v>14.1</v>
       </c>
       <c r="S27" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T27" t="n">
-        <v>43.9</v>
+        <v>43.7</v>
       </c>
       <c r="U27" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="V27" t="n">
         <v>15.2</v>
       </c>
       <c r="W27" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X27" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB27" t="n">
-        <v>94.40000000000001</v>
+        <v>94.2</v>
       </c>
       <c r="AC27" t="n">
-        <v>-7.5</v>
+        <v>-7.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5312,7 +5379,7 @@
         <v>21</v>
       </c>
       <c r="AJ27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK27" t="n">
         <v>30</v>
@@ -5324,22 +5391,22 @@
         <v>12</v>
       </c>
       <c r="AN27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP27" t="n">
         <v>10</v>
       </c>
       <c r="AQ27" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AR27" t="n">
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AT27" t="n">
         <v>6</v>
@@ -5351,22 +5418,22 @@
         <v>17</v>
       </c>
       <c r="AW27" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AX27" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AY27" t="n">
         <v>29</v>
       </c>
       <c r="AZ27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC27" t="n">
         <v>28</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-28-2011-12</t>
+          <t>2012-02-28</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>3.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
         <v>4</v>
@@ -5491,7 +5558,7 @@
         <v>4</v>
       </c>
       <c r="AI28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ28" t="n">
         <v>7</v>
@@ -5503,43 +5570,43 @@
         <v>4</v>
       </c>
       <c r="AM28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO28" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP28" t="n">
         <v>19</v>
       </c>
-      <c r="AP28" t="n">
-        <v>18</v>
-      </c>
       <c r="AQ28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR28" t="n">
         <v>28</v>
       </c>
       <c r="AS28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT28" t="n">
         <v>24</v>
       </c>
       <c r="AU28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV28" t="n">
         <v>2</v>
       </c>
       <c r="AW28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-28-2011-12</t>
+          <t>2012-02-28</t>
         </is>
       </c>
     </row>
@@ -5580,43 +5647,43 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E29" t="n">
         <v>10</v>
       </c>
       <c r="F29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G29" t="n">
-        <v>0.294</v>
+        <v>0.303</v>
       </c>
       <c r="H29" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I29" t="n">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="J29" t="n">
-        <v>78.59999999999999</v>
+        <v>78.8</v>
       </c>
       <c r="K29" t="n">
-        <v>0.432</v>
+        <v>0.431</v>
       </c>
       <c r="L29" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="M29" t="n">
         <v>16.9</v>
       </c>
       <c r="N29" t="n">
-        <v>0.321</v>
+        <v>0.327</v>
       </c>
       <c r="O29" t="n">
         <v>15.8</v>
       </c>
       <c r="P29" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="Q29" t="n">
         <v>0.748</v>
@@ -5625,16 +5692,16 @@
         <v>10.6</v>
       </c>
       <c r="S29" t="n">
-        <v>31.4</v>
+        <v>31.2</v>
       </c>
       <c r="T29" t="n">
-        <v>42</v>
+        <v>41.8</v>
       </c>
       <c r="U29" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V29" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W29" t="n">
         <v>7</v>
@@ -5643,40 +5710,40 @@
         <v>5</v>
       </c>
       <c r="Y29" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z29" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="AB29" t="n">
-        <v>89.09999999999999</v>
+        <v>89.2</v>
       </c>
       <c r="AC29" t="n">
-        <v>-5</v>
+        <v>-5.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AE29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF29" t="n">
         <v>25</v>
       </c>
       <c r="AG29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH29" t="n">
         <v>8</v>
       </c>
       <c r="AI29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ29" t="n">
         <v>26</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>27</v>
       </c>
       <c r="AK29" t="n">
         <v>21</v>
@@ -5688,40 +5755,40 @@
         <v>18</v>
       </c>
       <c r="AN29" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AO29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR29" t="n">
         <v>21</v>
       </c>
       <c r="AS29" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AT29" t="n">
         <v>18</v>
       </c>
       <c r="AU29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV29" t="n">
         <v>19</v>
       </c>
       <c r="AW29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX29" t="n">
         <v>18</v>
       </c>
       <c r="AY29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
@@ -5730,7 +5797,7 @@
         <v>26</v>
       </c>
       <c r="BB29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC29" t="n">
         <v>24</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-28-2011-12</t>
+          <t>2012-02-28</t>
         </is>
       </c>
     </row>
@@ -5762,46 +5829,46 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
       </c>
       <c r="F30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G30" t="n">
-        <v>0.455</v>
+        <v>0.469</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
       </c>
       <c r="I30" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J30" t="n">
-        <v>81.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L30" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="M30" t="n">
         <v>12.5</v>
       </c>
       <c r="N30" t="n">
-        <v>0.3</v>
+        <v>0.297</v>
       </c>
       <c r="O30" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="P30" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.74</v>
+        <v>0.747</v>
       </c>
       <c r="R30" t="n">
         <v>12.3</v>
@@ -5813,43 +5880,43 @@
         <v>42.3</v>
       </c>
       <c r="U30" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="V30" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="W30" t="n">
-        <v>8.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="X30" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Y30" t="n">
         <v>5.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AA30" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB30" t="n">
         <v>96.2</v>
       </c>
       <c r="AC30" t="n">
-        <v>-1.7</v>
+        <v>-1.5</v>
       </c>
       <c r="AD30" t="n">
         <v>25</v>
       </c>
       <c r="AE30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG30" t="n">
         <v>18</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>19</v>
       </c>
       <c r="AH30" t="n">
         <v>7</v>
@@ -5861,7 +5928,7 @@
         <v>12</v>
       </c>
       <c r="AK30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL30" t="n">
         <v>29</v>
@@ -5873,13 +5940,13 @@
         <v>30</v>
       </c>
       <c r="AO30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP30" t="n">
         <v>7</v>
       </c>
       <c r="AQ30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR30" t="n">
         <v>8</v>
@@ -5888,22 +5955,22 @@
         <v>21</v>
       </c>
       <c r="AT30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU30" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AV30" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW30" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AX30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ30" t="n">
         <v>28</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-28-2011-12</t>
+          <t>2012-02-28</t>
         </is>
       </c>
     </row>
@@ -5944,46 +6011,46 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E31" t="n">
         <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G31" t="n">
-        <v>0.206</v>
+        <v>0.212</v>
       </c>
       <c r="H31" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="I31" t="n">
-        <v>35.9</v>
+        <v>35.7</v>
       </c>
       <c r="J31" t="n">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="K31" t="n">
-        <v>0.431</v>
+        <v>0.429</v>
       </c>
       <c r="L31" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="M31" t="n">
-        <v>15.3</v>
+        <v>15</v>
       </c>
       <c r="N31" t="n">
-        <v>0.314</v>
+        <v>0.303</v>
       </c>
       <c r="O31" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="P31" t="n">
         <v>22.1</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.729</v>
+        <v>0.722</v>
       </c>
       <c r="R31" t="n">
         <v>11.8</v>
@@ -5995,16 +6062,16 @@
         <v>41.5</v>
       </c>
       <c r="U31" t="n">
-        <v>17.9</v>
+        <v>17.7</v>
       </c>
       <c r="V31" t="n">
         <v>15.8</v>
       </c>
       <c r="W31" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X31" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="Y31" t="n">
         <v>4.9</v>
@@ -6016,13 +6083,13 @@
         <v>18.7</v>
       </c>
       <c r="AB31" t="n">
-        <v>92.59999999999999</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>-8.699999999999999</v>
+        <v>-8.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6037,13 +6104,13 @@
         <v>22</v>
       </c>
       <c r="AI31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ31" t="n">
         <v>4</v>
       </c>
       <c r="AK31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL31" t="n">
         <v>25</v>
@@ -6052,22 +6119,22 @@
         <v>24</v>
       </c>
       <c r="AN31" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AO31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP31" t="n">
         <v>16</v>
       </c>
       <c r="AQ31" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AR31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT31" t="n">
         <v>21</v>
@@ -6076,16 +6143,16 @@
         <v>29</v>
       </c>
       <c r="AV31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AX31" t="n">
         <v>2</v>
       </c>
       <c r="AY31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ31" t="n">
         <v>27</v>
@@ -6094,7 +6161,7 @@
         <v>23</v>
       </c>
       <c r="BB31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC31" t="n">
         <v>29</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-28-2011-12</t>
+          <t>2012-02-28</t>
         </is>
       </c>
     </row>
